--- a/assets/stages/maps/MapEditor/Room13.xlsx
+++ b/assets/stages/maps/MapEditor/Room13.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -33,8 +33,24 @@
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="等线"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +60,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -60,12 +94,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,7 +492,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S8" sqref="S6:S8"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -557,34 +603,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>1</v>
@@ -620,31 +666,31 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF2" s="1" t="n">
         <v>1</v>
@@ -655,67 +701,67 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1" t="n">
         <v>2</v>
@@ -724,25 +770,25 @@
         <v>2</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1" t="n">
         <v>1</v>
@@ -753,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>-1</v>
@@ -813,37 +859,37 @@
         <v>-1</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -851,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-1</v>
@@ -949,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-1</v>
@@ -1000,7 +1046,7 @@
         <v>-1</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T6" s="1" t="n">
         <v>-1</v>
@@ -1047,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-1</v>
@@ -1098,7 +1144,7 @@
         <v>-1</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T7" s="1" t="n">
         <v>-1</v>
@@ -1145,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>-1</v>
@@ -1196,10 +1242,10 @@
         <v>-1</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U8" s="1" t="n">
         <v>-1</v>
@@ -1243,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-1</v>
@@ -1282,13 +1328,13 @@
         <v>-1</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R9" s="1" t="n">
         <v>-1</v>
@@ -1297,7 +1343,7 @@
         <v>-1</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U9" s="1" t="n">
         <v>-1</v>
@@ -1330,7 +1376,7 @@
         <v>-1</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF9" s="1" t="n">
         <v>1</v>
@@ -1341,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>-1</v>
@@ -1395,7 +1441,7 @@
         <v>-1</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U10" s="1" t="n">
         <v>-1</v>
@@ -1413,10 +1459,10 @@
         <v>-1</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>-1</v>
@@ -1428,7 +1474,7 @@
         <v>-1</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF10" s="1" t="n">
         <v>1</v>
@@ -1439,16 +1485,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-1</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>-1</v>
@@ -1526,7 +1572,7 @@
         <v>-1</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AF11" s="1" t="n">
         <v>1</v>
@@ -1537,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-1</v>
@@ -1561,10 +1607,10 @@
         <v>-1</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>-1</v>
@@ -1621,10 +1667,10 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="1" t="n">
         <v>1</v>
@@ -1635,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>-1</v>
@@ -1722,7 +1768,7 @@
         <v>-1</v>
       </c>
       <c r="AE13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF13" s="1" t="n">
         <v>1</v>
@@ -1733,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-1</v>
@@ -1820,7 +1866,7 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF14" s="1" t="n">
         <v>1</v>
@@ -1831,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>1</v>
@@ -1846,58 +1892,58 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>1</v>
@@ -1909,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1" t="n">
         <v>1</v>
@@ -1929,94 +1975,94 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2027,94 +2073,94 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2140,58 +2186,58 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>1</v>
@@ -2227,7 +2273,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J4 B5:B16 B5:K5 C3:U5 C3:AF4 C4:AD11 C12:AF12 C13:AD16 C17:D17 G6:AE9 G10:AF11 G13:AF13 G15:AE18 J1:J3 J2:K3 K1:K4 O9:AF9 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AE4:AF8 AE8:AE15 AF11:AF14">
+  <conditionalFormatting sqref="C3:U5 C6:Q7 C8:G16 G6:AE13 G15:X18 H7:P14 Q9:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2246,7 +2292,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF4" sqref="AF4:AF7"/>
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2298,6 +2344,7 @@
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
       <c r="K2" s="1" t="n"/>
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
@@ -2387,9 +2434,7 @@
       <c r="AC4" s="1" t="n"/>
       <c r="AD4" s="1" t="n"/>
       <c r="AE4" s="1" t="n"/>
-      <c r="AF4" s="2" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
@@ -2423,7 +2468,7 @@
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="1" t="n"/>
       <c r="AE5" s="1" t="n"/>
-      <c r="AF5" s="2" t="n">
+      <c r="AF5" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2459,7 +2504,7 @@
       <c r="AC6" s="1" t="n"/>
       <c r="AD6" s="1" t="n"/>
       <c r="AE6" s="1" t="n"/>
-      <c r="AF6" s="2" t="n">
+      <c r="AF6" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2495,7 +2540,7 @@
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n"/>
       <c r="AE7" s="1" t="n"/>
-      <c r="AF7" s="2" t="n">
+      <c r="AF7" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2531,7 +2576,7 @@
       <c r="AC8" s="1" t="n"/>
       <c r="AD8" s="1" t="n"/>
       <c r="AE8" s="1" t="n"/>
-      <c r="AF8" s="2" t="n"/>
+      <c r="AF8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
@@ -2666,7 +2711,7 @@
       <c r="AB12" s="1" t="n"/>
       <c r="AC12" s="1" t="n"/>
       <c r="AD12" s="1" t="n"/>
-      <c r="AE12" s="1" t="n"/>
+      <c r="AE12" s="3" t="n"/>
       <c r="AF12" s="2" t="n"/>
     </row>
     <row r="13">
@@ -2700,7 +2745,7 @@
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
       <c r="AD13" s="1" t="n"/>
-      <c r="AE13" s="1" t="n"/>
+      <c r="AE13" s="3" t="n"/>
       <c r="AF13" s="2" t="n"/>
     </row>
     <row r="14">
@@ -2734,7 +2779,7 @@
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="1" t="n"/>
+      <c r="AE14" s="3" t="n"/>
       <c r="AF14" s="2" t="n"/>
     </row>
     <row r="15">
@@ -2768,16 +2813,16 @@
       <c r="AB15" s="1" t="n"/>
       <c r="AC15" s="1" t="n"/>
       <c r="AD15" s="1" t="n"/>
-      <c r="AE15" s="1" t="n"/>
+      <c r="AE15" s="4" t="n"/>
       <c r="AF15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
@@ -2802,7 +2847,7 @@
       <c r="AB16" s="1" t="n"/>
       <c r="AC16" s="1" t="n"/>
       <c r="AD16" s="1" t="n"/>
-      <c r="AE16" s="1" t="n"/>
+      <c r="AE16" s="4" t="n"/>
       <c r="AF16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -2810,7 +2855,7 @@
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
+      <c r="E17" s="4" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -2836,7 +2881,7 @@
       <c r="AB17" s="1" t="n"/>
       <c r="AC17" s="1" t="n"/>
       <c r="AD17" s="1" t="n"/>
-      <c r="AE17" s="1" t="n"/>
+      <c r="AE17" s="4" t="n"/>
       <c r="AF17" s="2" t="n"/>
     </row>
     <row r="18">
@@ -2844,33 +2889,33 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="2" t="n"/>
-      <c r="O18" s="2" t="n"/>
-      <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="n"/>
-      <c r="R18" s="2" t="n"/>
-      <c r="S18" s="2" t="n"/>
-      <c r="T18" s="2" t="n"/>
-      <c r="U18" s="2" t="n"/>
-      <c r="V18" s="2" t="n"/>
-      <c r="W18" s="2" t="n"/>
-      <c r="X18" s="2" t="n"/>
-      <c r="Y18" s="2" t="n"/>
-      <c r="Z18" s="2" t="n"/>
-      <c r="AA18" s="2" t="n"/>
-      <c r="AB18" s="2" t="n"/>
-      <c r="AC18" s="2" t="n"/>
-      <c r="AD18" s="2" t="n"/>
-      <c r="AE18" s="2" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="4" t="n"/>
+      <c r="H18" s="4" t="n"/>
+      <c r="I18" s="4" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="4" t="n"/>
+      <c r="L18" s="4" t="n"/>
+      <c r="M18" s="4" t="n"/>
+      <c r="N18" s="4" t="n"/>
+      <c r="O18" s="4" t="n"/>
+      <c r="P18" s="4" t="n"/>
+      <c r="Q18" s="4" t="n"/>
+      <c r="R18" s="4" t="n"/>
+      <c r="S18" s="4" t="n"/>
+      <c r="T18" s="4" t="n"/>
+      <c r="U18" s="4" t="n"/>
+      <c r="V18" s="4" t="n"/>
+      <c r="W18" s="4" t="n"/>
+      <c r="X18" s="4" t="n"/>
+      <c r="Y18" s="4" t="n"/>
+      <c r="Z18" s="4" t="n"/>
+      <c r="AA18" s="4" t="n"/>
+      <c r="AB18" s="4" t="n"/>
+      <c r="AC18" s="4" t="n"/>
+      <c r="AD18" s="4" t="n"/>
+      <c r="AE18" s="4" t="n"/>
       <c r="AF18" s="2" t="n"/>
     </row>
   </sheetData>

--- a/assets/stages/maps/MapEditor/Room13.xlsx
+++ b/assets/stages/maps/MapEditor/Room13.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -2940,4 +2941,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/assets/stages/maps/MapEditor/Room13.xlsx
+++ b/assets/stages/maps/MapEditor/Room13.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="等线"/>
       <family val="2"/>
@@ -36,13 +36,6 @@
     </font>
     <font>
       <name val="等线"/>
-      <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
       <family val="3"/>
       <b val="1"/>
@@ -51,7 +44,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -61,24 +54,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,7 +70,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -103,16 +78,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,8 +458,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -530,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K1" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L1" s="1" t="n">
         <v>1</v>
@@ -604,34 +570,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>1</v>
@@ -667,31 +633,31 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1" t="n">
         <v>1</v>
@@ -702,67 +668,67 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>-1</v>
-      </c>
       <c r="O3" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3" s="1" t="n">
         <v>2</v>
@@ -771,25 +737,25 @@
         <v>2</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="1" t="n">
         <v>1</v>
@@ -800,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>-1</v>
@@ -860,31 +826,31 @@
         <v>-1</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE4" s="1" t="n">
         <v>1</v>
@@ -898,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-1</v>
@@ -985,10 +951,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -996,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-1</v>
@@ -1083,10 +1049,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1181,10 +1147,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1245,7 @@
         <v>-1</v>
       </c>
       <c r="AE8" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF8" s="1" t="n">
         <v>1</v>
@@ -1377,7 +1343,7 @@
         <v>-1</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="1" t="n">
         <v>1</v>
@@ -1388,94 +1354,94 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AE10" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <v>-1</v>
       </c>
       <c r="AF10" s="1" t="n">
         <v>1</v>
@@ -1486,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-1</v>
@@ -1573,7 +1539,7 @@
         <v>-1</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="1" t="n">
         <v>1</v>
@@ -1584,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-1</v>
@@ -1608,10 +1574,10 @@
         <v>-1</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>-1</v>
@@ -1668,7 +1634,7 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="1" t="n">
         <v>1</v>
@@ -1682,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>-1</v>
@@ -1769,7 +1735,7 @@
         <v>-1</v>
       </c>
       <c r="AE13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="1" t="n">
         <v>1</v>
@@ -1780,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-1</v>
@@ -1867,7 +1833,7 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="1" t="n">
         <v>1</v>
@@ -1878,73 +1844,73 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>-1</v>
-      </c>
       <c r="H15" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>1</v>
@@ -1976,94 +1942,94 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2074,94 +2040,94 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2187,58 +2153,58 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>1</v>
@@ -2274,7 +2240,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:U5 C6:Q7 C8:G16 G6:AE13 G15:X18 H7:P14 Q9:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8">
+  <conditionalFormatting sqref="B2:J4 B5:B16 B5:K5 C3:U5 C3:AF4 C4:AD11 C12:AF12 C13:AD16 C17:D17 G6:AE9 G10:AF11 G13:AF13 G15:AE18 J1:J3 K1:K4 Q9:AF9 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AE7:AF8 AE9:AE15 AF11:AF14">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2292,8 +2258,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2311,8 +2277,12 @@
       <c r="G1" s="2" t="n"/>
       <c r="H1" s="2" t="n"/>
       <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
+      <c r="J1" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="L1" s="2" t="n"/>
       <c r="M1" s="2" t="n"/>
       <c r="N1" s="2" t="n"/>
@@ -2345,7 +2315,6 @@
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
-      <c r="J2" s="1" t="n"/>
       <c r="K2" s="1" t="n"/>
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
@@ -2469,9 +2438,7 @@
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="1" t="n"/>
       <c r="AE5" s="1" t="n"/>
-      <c r="AF5" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF5" s="2" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -2505,9 +2472,7 @@
       <c r="AC6" s="1" t="n"/>
       <c r="AD6" s="1" t="n"/>
       <c r="AE6" s="1" t="n"/>
-      <c r="AF6" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF6" s="2" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -2541,9 +2506,7 @@
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n"/>
       <c r="AE7" s="1" t="n"/>
-      <c r="AF7" s="6" t="n">
-        <v>3</v>
-      </c>
+      <c r="AF7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -2577,7 +2540,7 @@
       <c r="AC8" s="1" t="n"/>
       <c r="AD8" s="1" t="n"/>
       <c r="AE8" s="1" t="n"/>
-      <c r="AF8" s="6" t="n"/>
+      <c r="AF8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
@@ -2712,7 +2675,7 @@
       <c r="AB12" s="1" t="n"/>
       <c r="AC12" s="1" t="n"/>
       <c r="AD12" s="1" t="n"/>
-      <c r="AE12" s="3" t="n"/>
+      <c r="AE12" s="1" t="n"/>
       <c r="AF12" s="2" t="n"/>
     </row>
     <row r="13">
@@ -2746,7 +2709,7 @@
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
       <c r="AD13" s="1" t="n"/>
-      <c r="AE13" s="3" t="n"/>
+      <c r="AE13" s="1" t="n"/>
       <c r="AF13" s="2" t="n"/>
     </row>
     <row r="14">
@@ -2780,7 +2743,7 @@
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="3" t="n"/>
+      <c r="AE14" s="1" t="n"/>
       <c r="AF14" s="2" t="n"/>
     </row>
     <row r="15">
@@ -2814,16 +2777,16 @@
       <c r="AB15" s="1" t="n"/>
       <c r="AC15" s="1" t="n"/>
       <c r="AD15" s="1" t="n"/>
-      <c r="AE15" s="4" t="n"/>
+      <c r="AE15" s="1" t="n"/>
       <c r="AF15" s="2" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="5" t="n"/>
-      <c r="E16" s="5" t="n"/>
-      <c r="F16" s="5" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
@@ -2848,7 +2811,7 @@
       <c r="AB16" s="1" t="n"/>
       <c r="AC16" s="1" t="n"/>
       <c r="AD16" s="1" t="n"/>
-      <c r="AE16" s="4" t="n"/>
+      <c r="AE16" s="1" t="n"/>
       <c r="AF16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -2856,7 +2819,7 @@
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
-      <c r="E17" s="4" t="n"/>
+      <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -2882,7 +2845,7 @@
       <c r="AB17" s="1" t="n"/>
       <c r="AC17" s="1" t="n"/>
       <c r="AD17" s="1" t="n"/>
-      <c r="AE17" s="4" t="n"/>
+      <c r="AE17" s="1" t="n"/>
       <c r="AF17" s="2" t="n"/>
     </row>
     <row r="18">
@@ -2890,33 +2853,33 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
-      <c r="E18" s="4" t="n"/>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
-      <c r="I18" s="4" t="n"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="M18" s="4" t="n"/>
-      <c r="N18" s="4" t="n"/>
-      <c r="O18" s="4" t="n"/>
-      <c r="P18" s="4" t="n"/>
-      <c r="Q18" s="4" t="n"/>
-      <c r="R18" s="4" t="n"/>
-      <c r="S18" s="4" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="U18" s="4" t="n"/>
-      <c r="V18" s="4" t="n"/>
-      <c r="W18" s="4" t="n"/>
-      <c r="X18" s="4" t="n"/>
-      <c r="Y18" s="4" t="n"/>
-      <c r="Z18" s="4" t="n"/>
-      <c r="AA18" s="4" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-      <c r="AC18" s="4" t="n"/>
-      <c r="AD18" s="4" t="n"/>
-      <c r="AE18" s="4" t="n"/>
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="n"/>
+      <c r="Q18" s="2" t="n"/>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="n"/>
+      <c r="T18" s="2" t="n"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="n"/>
+      <c r="W18" s="2" t="n"/>
+      <c r="X18" s="2" t="n"/>
+      <c r="Y18" s="2" t="n"/>
+      <c r="Z18" s="2" t="n"/>
+      <c r="AA18" s="2" t="n"/>
+      <c r="AB18" s="2" t="n"/>
+      <c r="AC18" s="2" t="n"/>
+      <c r="AD18" s="2" t="n"/>
+      <c r="AE18" s="2" t="n"/>
       <c r="AF18" s="2" t="n"/>
     </row>
   </sheetData>

--- a/assets/stages/maps/MapEditor/Room13.xlsx
+++ b/assets/stages/maps/MapEditor/Room13.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="backgroundObjects" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -2922,4 +2923,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>